--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulaliyev/web-projects/ng-project-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C87B6F1-4FC5-D84E-B13D-3409DA1DEA9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2EA69-7B7B-8C42-B8F2-9FA7783AE4DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="5520" windowWidth="24260" windowHeight="11980" xr2:uid="{E4C80202-9262-8B4F-91CC-307831F7E5D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Todo</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>edit component, add Save and Submit buttons. When save is clicked, the screen doesn't go away, when Submit is clicked, you go away back to details component</t>
+  </si>
+  <si>
+    <t>add ability to expand a certain section to full screen</t>
+  </si>
+  <si>
+    <t>download file as ppt and or pdf</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73DA3D6-BC61-E841-B33E-E1C7C363469E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,6 +477,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
